--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2599475.373310756</v>
+        <v>2598797.552630483</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052314</v>
+        <v>313298.4515052319</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058536</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>61.28741305859259</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2136088607984</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293212</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.76720738385716</v>
       </c>
       <c r="V11" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>23.69738124260144</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072814</v>
+        <v>20.56530653072786</v>
       </c>
       <c r="U12" t="n">
-        <v>108.580764534128</v>
+        <v>78.59407041505824</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054771</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215706</v>
+        <v>72.32210790215677</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461607</v>
+        <v>22.93043876461579</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917108</v>
+        <v>29.0018104591708</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420685</v>
+        <v>8.8310620594204</v>
       </c>
       <c r="S13" t="n">
-        <v>40.9716860187128</v>
+        <v>40.97168601871252</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199523</v>
+        <v>29.35851686199494</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013482</v>
+        <v>94.27381875013454</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959537</v>
+        <v>50.72653950959509</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448079</v>
+        <v>95.92823141448051</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338799</v>
+        <v>27.53697973338771</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931388</v>
+        <v>22.7587971393136</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>33.25097976566023</v>
+        <v>18.84381519390162</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.88999934163187</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293232</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.76720738385714</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>117.6682934633409</v>
+        <v>88.50640962262146</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072805</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603985</v>
+        <v>42.84521610603962</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054763</v>
+        <v>46.2664452405474</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215697</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461599</v>
+        <v>22.93043876461576</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.001810459171</v>
+        <v>29.00181045917077</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420599</v>
+        <v>8.831062059420372</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871272</v>
+        <v>40.97168601871249</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199514</v>
+        <v>29.35851686199491</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013474</v>
+        <v>94.27381875013451</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959528</v>
+        <v>50.72653950959506</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448071</v>
+        <v>95.92823141448048</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338791</v>
+        <v>27.53697973338768</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.7587971393138</v>
+        <v>22.75879713931357</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>29.3257137720268</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307553</v>
+        <v>16.89237603307508</v>
       </c>
       <c r="E17" t="n">
         <v>50.59912845248414</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>107.5010219193907</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.13658612126563</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>49.43169076287318</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>107.5010219193907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.13658612126563</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S21" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>101.3644357981254</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.13658612126563</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>49.43169076287299</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>107.5010219193907</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8550023940869</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2820923918731</v>
+        <v>190.2820923918732</v>
       </c>
       <c r="G26" t="n">
         <v>205.9102852902861</v>
@@ -2573,7 +2573,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751258</v>
+        <v>27.67892728751262</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834638</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646599</v>
+        <v>9.501751719646627</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057164</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V26" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776265</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X26" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703095</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.1841679082744</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.28561441782325</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442333</v>
+        <v>2.030624957442361</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276917808945</v>
+        <v>24.31053453275416</v>
       </c>
       <c r="V27" t="n">
-        <v>27.7317636672619</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78742632887125</v>
+        <v>53.78742632887128</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330262</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588527</v>
+        <v>10.4671288858853</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.437004445427</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870942</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684901</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630956</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119498</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102185</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028075</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>205.9102852902862</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
         <v>27.67892728751265</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R30" t="n">
-        <v>49.68390519971173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.03062495744239</v>
+        <v>204.4013831558169</v>
       </c>
       <c r="U30" t="n">
         <v>24.31053453275419</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726196</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y30" t="n">
         <v>10.46712888588533</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8550023940871</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
         <v>158.5617548134959</v>
@@ -3044,10 +3044,10 @@
         <v>205.9102852902862</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751272</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834648</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646705</v>
+        <v>9.501751719646649</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057176</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776267</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703097</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="33">
@@ -3117,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>68.00742058349923</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>113.8621992563358</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442447</v>
+        <v>2.03062495744239</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2276917808945</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726202</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887136</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330375</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588539</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542711</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870953</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684913</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630967</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W34" t="n">
-        <v>77.3935498411951</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102299</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028189</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036218</v>
       </c>
       <c r="E35" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497711</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281484</v>
       </c>
       <c r="G35" t="n">
         <v>170.7342086265613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962071</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.05644914684683</v>
+        <v>2.056449146846879</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728692</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390179</v>
       </c>
       <c r="X35" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="36">
@@ -3345,22 +3345,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>75.81846051412502</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>199.2591411356078</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514643</v>
+        <v>18.61134966514649</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312425</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747023</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036218</v>
       </c>
       <c r="E38" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497711</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281484</v>
       </c>
       <c r="G38" t="n">
         <v>170.7342086265613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962066</v>
+        <v>98.81827173962071</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.05644914684683</v>
+        <v>2.056449146846879</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728686</v>
+        <v>72.78654969728692</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390179</v>
       </c>
       <c r="X38" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065847</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="39">
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>69.09278251369719</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>87.89754889132089</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>18.61134966514649</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312425</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747023</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657433</v>
       </c>
       <c r="E41" t="n">
         <v>130.8828275259832</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6031651043606</v>
+        <v>162.6031651043605</v>
       </c>
       <c r="G41" t="n">
         <v>178.2313580027735</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059037</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349906</v>
       </c>
       <c r="W41" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011394</v>
       </c>
       <c r="X41" t="n">
         <v>119.1866297590532</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.689482882797</v>
+        <v>141.6894828827969</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.69549650778526</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974932276</v>
+        <v>0.05283637974929434</v>
       </c>
       <c r="W42" t="n">
-        <v>32.29763820285238</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.06020988933643</v>
+        <v>48.0602098893364</v>
       </c>
       <c r="V43" t="n">
-        <v>4.512930648796981</v>
+        <v>4.512930648796953</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368237</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657433</v>
       </c>
       <c r="E44" t="n">
         <v>130.8828275259832</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.553598523059058</v>
+        <v>9.55359852305903</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349906</v>
       </c>
       <c r="W44" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011394</v>
       </c>
       <c r="X44" t="n">
         <v>119.1866297590532</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.689482882797</v>
+        <v>141.6894828827969</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>87.84154069275657</v>
+        <v>147.7211328507841</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>0.05283637974929434</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>26.10849904135864</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.06020988933643</v>
+        <v>48.0602098893364</v>
       </c>
       <c r="V46" t="n">
-        <v>4.512930648796981</v>
+        <v>4.512930648796953</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368237</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.3508346895561</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="C11" t="n">
-        <v>118.3508346895561</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="D11" t="n">
-        <v>118.3508346895561</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="E11" t="n">
-        <v>118.3508346895561</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="F11" t="n">
-        <v>56.44435685259384</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="G11" t="n">
-        <v>56.44435685259384</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="H11" t="n">
-        <v>56.44435685259384</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888375</v>
+        <v>79.40459512339645</v>
       </c>
       <c r="K11" t="n">
-        <v>130.592749152757</v>
+        <v>200.2334004142648</v>
       </c>
       <c r="L11" t="n">
-        <v>178.9899996397443</v>
+        <v>248.6306509012521</v>
       </c>
       <c r="M11" t="n">
-        <v>261.7172256428613</v>
+        <v>331.357876904369</v>
       </c>
       <c r="N11" t="n">
-        <v>338.9406286343661</v>
+        <v>452.1866821952374</v>
       </c>
       <c r="O11" t="n">
-        <v>374.9511395335463</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="P11" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="T11" t="n">
-        <v>488.1971930944187</v>
+        <v>459.8775635055973</v>
       </c>
       <c r="U11" t="n">
-        <v>488.1971930944187</v>
+        <v>403.5470509966506</v>
       </c>
       <c r="V11" t="n">
-        <v>364.9150736261312</v>
+        <v>280.2649315283634</v>
       </c>
       <c r="W11" t="n">
-        <v>364.9150736261312</v>
+        <v>156.9828120600761</v>
       </c>
       <c r="X11" t="n">
-        <v>364.9150736261312</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.6329541578436</v>
+        <v>133.0460633301756</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="C12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="D12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="E12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="F12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="G12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="H12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="K12" t="n">
-        <v>9.763943861888375</v>
+        <v>43.26205739618833</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3309857893937</v>
+        <v>161.8290993236937</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1597910802624</v>
+        <v>282.657904614562</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145629</v>
+        <v>403.4867099054304</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4867099054315</v>
+        <v>403.4867099054304</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944187</v>
+        <v>481.9986212547553</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944187</v>
+        <v>481.9986212547553</v>
       </c>
       <c r="S12" t="n">
-        <v>364.9150736261312</v>
+        <v>358.716501786468</v>
       </c>
       <c r="T12" t="n">
-        <v>344.1420367264058</v>
+        <v>337.9434648867429</v>
       </c>
       <c r="U12" t="n">
-        <v>234.4644967929431</v>
+        <v>258.5555149725427</v>
       </c>
       <c r="V12" t="n">
-        <v>187.7307137216828</v>
+        <v>135.2733955042554</v>
       </c>
       <c r="W12" t="n">
-        <v>114.6780794770797</v>
+        <v>62.22076125965258</v>
       </c>
       <c r="X12" t="n">
-        <v>91.51602011888164</v>
+        <v>39.05870190145482</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888352</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="E13" t="n">
-        <v>61.94321497989162</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="F13" t="n">
-        <v>116.8442525017354</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="G13" t="n">
-        <v>116.8442525017354</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="H13" t="n">
-        <v>116.8442525017354</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="I13" t="n">
-        <v>116.8442525017354</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="J13" t="n">
-        <v>190.5825891425288</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="K13" t="n">
-        <v>190.5825891425288</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="L13" t="n">
-        <v>311.4113944333974</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="M13" t="n">
-        <v>311.4113944333974</v>
+        <v>75.34038129271174</v>
       </c>
       <c r="N13" t="n">
-        <v>316.997991874451</v>
+        <v>75.34038129271174</v>
       </c>
       <c r="O13" t="n">
-        <v>316.997991874451</v>
+        <v>196.1691865835801</v>
       </c>
       <c r="P13" t="n">
-        <v>316.997991874451</v>
+        <v>316.9979918744484</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538495</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="R13" t="n">
-        <v>374.970579647364</v>
+        <v>374.9705796473619</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143208</v>
+        <v>333.585038214319</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769519</v>
+        <v>303.9299706769504</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313612</v>
+        <v>208.70389113136</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337901</v>
+        <v>157.4649623337892</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481957</v>
+        <v>60.56775888481897</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099331</v>
+        <v>32.752627840993</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888352</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>459.8775635055982</v>
+        <v>28.79810062340513</v>
       </c>
       <c r="C14" t="n">
-        <v>459.8775635055982</v>
+        <v>28.79810062340513</v>
       </c>
       <c r="D14" t="n">
-        <v>459.8775635055982</v>
+        <v>28.79810062340513</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5954440373105</v>
+        <v>28.79810062340513</v>
       </c>
       <c r="F14" t="n">
-        <v>213.3133245690229</v>
+        <v>28.79810062340513</v>
       </c>
       <c r="G14" t="n">
-        <v>90.03120510073538</v>
+        <v>28.79810062340513</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259374</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J14" t="n">
-        <v>127.0904160344399</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K14" t="n">
-        <v>243.8388027136294</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L14" t="n">
-        <v>292.2360532006167</v>
+        <v>86.58895351805899</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9632792037336</v>
+        <v>169.3161795211759</v>
       </c>
       <c r="N14" t="n">
-        <v>452.1866821952385</v>
+        <v>246.5395825126808</v>
       </c>
       <c r="O14" t="n">
-        <v>488.1971930944187</v>
+        <v>367.3683878035491</v>
       </c>
       <c r="P14" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944187</v>
+        <v>454.9749715372134</v>
       </c>
       <c r="T14" t="n">
-        <v>459.8775635055982</v>
+        <v>454.9749715372134</v>
       </c>
       <c r="U14" t="n">
-        <v>459.8775635055982</v>
+        <v>398.6444590282668</v>
       </c>
       <c r="V14" t="n">
-        <v>459.8775635055982</v>
+        <v>398.6444590282668</v>
       </c>
       <c r="W14" t="n">
-        <v>459.8775635055982</v>
+        <v>275.3623395599795</v>
       </c>
       <c r="X14" t="n">
-        <v>459.8775635055982</v>
+        <v>152.0802200916924</v>
       </c>
       <c r="Y14" t="n">
-        <v>459.8775635055982</v>
+        <v>28.79810062340513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133.0460633301759</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K15" t="n">
-        <v>43.26205739618889</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L15" t="n">
-        <v>161.8290993236943</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M15" t="n">
-        <v>282.6579046145629</v>
+        <v>288.0409375000534</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145629</v>
+        <v>288.0409375000534</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4867099054315</v>
+        <v>408.8697427909217</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S15" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T15" t="n">
-        <v>467.4241561946934</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="U15" t="n">
-        <v>424.1461601279865</v>
+        <v>321.6370775594235</v>
       </c>
       <c r="V15" t="n">
-        <v>377.4123770567263</v>
+        <v>274.9032944881635</v>
       </c>
       <c r="W15" t="n">
-        <v>304.3597428121233</v>
+        <v>151.6211750198762</v>
       </c>
       <c r="X15" t="n">
-        <v>281.1976834539253</v>
+        <v>128.4591156616785</v>
       </c>
       <c r="Y15" t="n">
-        <v>251.9029254143587</v>
+        <v>99.16435762211205</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888375</v>
+        <v>58.47177103179104</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888375</v>
+        <v>110.6510421497946</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888375</v>
+        <v>165.5520796716387</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888375</v>
+        <v>165.5520796716387</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888375</v>
+        <v>165.5520796716387</v>
       </c>
       <c r="I16" t="n">
-        <v>9.763943861888375</v>
+        <v>165.5520796716387</v>
       </c>
       <c r="J16" t="n">
-        <v>83.50228050268188</v>
+        <v>239.2904163124324</v>
       </c>
       <c r="K16" t="n">
-        <v>204.3310857935505</v>
+        <v>263.0620390629788</v>
       </c>
       <c r="L16" t="n">
-        <v>263.0620390629803</v>
+        <v>263.0620390629788</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0620390629803</v>
+        <v>263.0620390629788</v>
       </c>
       <c r="N16" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538471</v>
       </c>
       <c r="O16" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538471</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538471</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538471</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473634</v>
+        <v>374.9705796473618</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143203</v>
+        <v>333.5850382143189</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769514</v>
+        <v>303.9299706769503</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313608</v>
+        <v>208.7038911313599</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337898</v>
+        <v>157.4649623337891</v>
       </c>
       <c r="W16" t="n">
-        <v>60.5677588848194</v>
+        <v>60.56775888481891</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099323</v>
+        <v>32.75262784099296</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589156</v>
+        <v>315.9417875589143</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558583</v>
+        <v>286.3198544558568</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618426</v>
+        <v>269.2568483618415</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017576</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130087</v>
+        <v>134.9956418130076</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151848</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I17" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J17" t="n">
-        <v>9.763943861888375</v>
+        <v>130.5927491527566</v>
       </c>
       <c r="K17" t="n">
-        <v>9.763943861888375</v>
+        <v>243.838802713628</v>
       </c>
       <c r="L17" t="n">
-        <v>58.1611943488757</v>
+        <v>292.2360532006153</v>
       </c>
       <c r="M17" t="n">
-        <v>140.8884203519926</v>
+        <v>374.9632792037323</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1118233434975</v>
+        <v>452.1866821952372</v>
       </c>
       <c r="O17" t="n">
-        <v>254.1223342426777</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P17" t="n">
-        <v>254.1223342426777</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q17" t="n">
-        <v>274.6971522968115</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R17" t="n">
-        <v>395.5259575876801</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S17" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190502</v>
+        <v>471.0086272190488</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376824</v>
+        <v>431.7127376376812</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858664</v>
+        <v>369.6866933858651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>432.0676204841775</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C18" t="n">
-        <v>432.0676204841775</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D18" t="n">
-        <v>432.0676204841775</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E18" t="n">
-        <v>308.78550101589</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F18" t="n">
-        <v>185.5033815476024</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G18" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H18" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167978</v>
+        <v>43.26205739618821</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091851</v>
+        <v>161.8290993236936</v>
       </c>
       <c r="M18" t="n">
-        <v>288.0409375000538</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="N18" t="n">
-        <v>367.3683878035501</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="O18" t="n">
-        <v>488.1971930944187</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.9986212547565</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R18" t="n">
-        <v>481.9986212547565</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="S18" t="n">
-        <v>481.9986212547565</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="T18" t="n">
-        <v>481.9986212547565</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="U18" t="n">
-        <v>481.9986212547565</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="V18" t="n">
-        <v>432.0676204841775</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="W18" t="n">
-        <v>432.0676204841775</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="X18" t="n">
-        <v>432.0676204841775</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="Y18" t="n">
-        <v>432.0676204841775</v>
+        <v>118.3508346895557</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589156</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558584</v>
+        <v>286.319854455857</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618429</v>
+        <v>269.2568483618416</v>
       </c>
       <c r="E20" t="n">
-        <v>218.146617601758</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130089</v>
+        <v>134.9956418130078</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151848</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I20" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J20" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K20" t="n">
-        <v>89.24480594465247</v>
+        <v>30.33876191602111</v>
       </c>
       <c r="L20" t="n">
-        <v>137.6420564316398</v>
+        <v>78.73601240300843</v>
       </c>
       <c r="M20" t="n">
-        <v>220.3692824347567</v>
+        <v>161.4632384061254</v>
       </c>
       <c r="N20" t="n">
-        <v>297.5926854262616</v>
+        <v>238.6866413976302</v>
       </c>
       <c r="O20" t="n">
-        <v>333.6031963254418</v>
+        <v>274.6971522968104</v>
       </c>
       <c r="P20" t="n">
-        <v>333.6031963254418</v>
+        <v>274.6971522968104</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.6031963254418</v>
+        <v>274.6971522968104</v>
       </c>
       <c r="R20" t="n">
-        <v>418.1743935494831</v>
+        <v>395.5259575876787</v>
       </c>
       <c r="S20" t="n">
-        <v>418.1743935494831</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494831</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190502</v>
+        <v>471.008627219049</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376824</v>
+        <v>431.7127376376813</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858664</v>
+        <v>369.6866933858653</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.763943861888375</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="C21" t="n">
-        <v>9.763943861888375</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="D21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K21" t="n">
-        <v>9.763943861888375</v>
+        <v>41.00029403282529</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3309857893937</v>
+        <v>41.00029403282529</v>
       </c>
       <c r="M21" t="n">
-        <v>246.5395825126815</v>
+        <v>161.8290993236936</v>
       </c>
       <c r="N21" t="n">
-        <v>367.3683878035501</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="O21" t="n">
-        <v>488.1971930944187</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944187</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.9986212547565</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R21" t="n">
-        <v>481.9986212547565</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="S21" t="n">
-        <v>358.7165017864689</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="T21" t="n">
-        <v>256.3281827984635</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="U21" t="n">
-        <v>256.3281827984635</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="V21" t="n">
-        <v>133.0460633301759</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="W21" t="n">
-        <v>133.0460633301759</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="X21" t="n">
-        <v>9.763943861888375</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.763943861888375</v>
+        <v>118.3508346895557</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888375</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589151</v>
+        <v>315.9417875589143</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558576</v>
+        <v>286.319854455857</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618421</v>
+        <v>269.2568483618415</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017569</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F23" t="n">
-        <v>134.995641813008</v>
+        <v>134.9956418130075</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151846</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I23" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465244</v>
       </c>
       <c r="J23" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465244</v>
       </c>
       <c r="K23" t="n">
-        <v>89.24480594465246</v>
+        <v>89.24480594465244</v>
       </c>
       <c r="L23" t="n">
         <v>137.6420564316398</v>
@@ -6005,34 +6005,34 @@
         <v>333.6031963254418</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6031963254418</v>
+        <v>454.4320016163101</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.6031963254418</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R23" t="n">
-        <v>333.6031963254418</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S23" t="n">
-        <v>333.6031963254418</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T23" t="n">
-        <v>431.0794622203932</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190496</v>
+        <v>471.0086272190489</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376819</v>
+        <v>431.7127376376811</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858659</v>
+        <v>369.6866933858651</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K24" t="n">
-        <v>9.763943861888363</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L24" t="n">
-        <v>41.00029403282544</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M24" t="n">
-        <v>161.8290993236939</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145624</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054309</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944181</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.9986212547559</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R24" t="n">
-        <v>358.7165017864685</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="S24" t="n">
-        <v>235.4343823181811</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="T24" t="n">
-        <v>112.1522628498936</v>
+        <v>241.6329541578429</v>
       </c>
       <c r="U24" t="n">
-        <v>112.1522628498936</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="V24" t="n">
-        <v>112.1522628498936</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="W24" t="n">
-        <v>62.22126207931487</v>
+        <v>118.3508346895557</v>
       </c>
       <c r="X24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y24" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888363</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567893</v>
+        <v>885.8553792567888</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223581</v>
+        <v>759.7392152223573</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218573</v>
+        <v>599.5758265218565</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926924</v>
+        <v>407.3716927926919</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307873</v>
+        <v>199.3815056307867</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074062</v>
+        <v>64.03367896074067</v>
       </c>
       <c r="I26" t="n">
         <v>36.07516654911175</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792159</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281794</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908256</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696015</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.235767148034</v>
+        <v>1785.235767148035</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.758327455587</v>
+        <v>1803.758327455588</v>
       </c>
       <c r="S26" t="n">
         <v>1789.25800647746</v>
@@ -6263,7 +6263,7 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
         <v>1358.407736259861</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>268.3381484313895</v>
+        <v>225.487440816148</v>
       </c>
       <c r="C27" t="n">
-        <v>268.3381484313895</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D27" t="n">
-        <v>268.3381484313895</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E27" t="n">
-        <v>268.3381484313895</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F27" t="n">
-        <v>107.9104321486336</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G27" t="n">
-        <v>107.9104321486336</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H27" t="n">
-        <v>107.9104321486336</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53248476653826</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J27" t="n">
         <v>36.07516654911175</v>
@@ -6324,31 +6324,31 @@
         <v>800.787181073825</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R27" t="n">
-        <v>800.787181073825</v>
+        <v>757.9364734585837</v>
       </c>
       <c r="S27" t="n">
-        <v>607.3688482411728</v>
+        <v>564.5181406259316</v>
       </c>
       <c r="T27" t="n">
-        <v>605.3177119205241</v>
+        <v>562.4670043052827</v>
       </c>
       <c r="U27" t="n">
-        <v>365.6937808287115</v>
+        <v>537.9109088176522</v>
       </c>
       <c r="V27" t="n">
-        <v>337.6818983365277</v>
+        <v>294.8311907212863</v>
       </c>
       <c r="W27" t="n">
-        <v>283.3511646710012</v>
+        <v>240.5004570557597</v>
       </c>
       <c r="X27" t="n">
-        <v>278.9110058918797</v>
+        <v>236.0602982766382</v>
       </c>
       <c r="Y27" t="n">
-        <v>268.3381484313895</v>
+        <v>225.487440816148</v>
       </c>
     </row>
     <row r="28">
@@ -6364,67 +6364,67 @@
         <v>36.07516654911175</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.1323284765671</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07516654911175</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="M28" t="n">
-        <v>75.06626805783156</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270847</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687924</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022782</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837837</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388979</v>
+        <v>49.43518041388985</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914011</v>
+        <v>40.34194994914014</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07516654911175</v>
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567892</v>
+        <v>885.8553792567888</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223579</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218566</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926921</v>
+        <v>407.3716927926917</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307869</v>
+        <v>199.3815056307865</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074087</v>
+        <v>64.0336789607407</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792163</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908259</v>
+        <v>636.4155757908261</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696019</v>
       </c>
       <c r="N29" t="n">
         <v>1217.942176136766</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148035</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R29" t="n">
         <v>1803.758327455587</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.25800647746</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537846</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.99850759743</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259862</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.328534067629</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C30" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D30" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E30" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
         <v>74.95631296890315</v>
@@ -6561,31 +6561,31 @@
         <v>800.787181073825</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R30" t="n">
-        <v>750.6014182458333</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="S30" t="n">
-        <v>750.6014182458333</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="T30" t="n">
-        <v>748.5502819251844</v>
+        <v>588.1225656424285</v>
       </c>
       <c r="U30" t="n">
-        <v>723.9941864375539</v>
+        <v>563.566470154798</v>
       </c>
       <c r="V30" t="n">
-        <v>695.9823039453702</v>
+        <v>320.4867520584322</v>
       </c>
       <c r="W30" t="n">
-        <v>426.5837346756615</v>
+        <v>51.08818278872351</v>
       </c>
       <c r="X30" t="n">
-        <v>207.0757402923579</v>
+        <v>46.64802400960198</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M31" t="n">
-        <v>36.07516654911175</v>
+        <v>95.87107322179779</v>
       </c>
       <c r="N31" t="n">
-        <v>36.07516654911175</v>
+        <v>95.87107322179779</v>
       </c>
       <c r="O31" t="n">
-        <v>210.4325916083657</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P31" t="n">
         <v>270.2284982810518</v>
@@ -6658,13 +6658,13 @@
         <v>127.6104832837839</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388991</v>
+        <v>49.4351804138899</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914017</v>
+        <v>40.34194994914016</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567883</v>
+        <v>885.8553792567891</v>
       </c>
       <c r="D32" t="n">
-        <v>759.739215222357</v>
+        <v>759.7392152223579</v>
       </c>
       <c r="E32" t="n">
-        <v>599.575826521856</v>
+        <v>599.5758265218569</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926911</v>
+        <v>407.3716927926921</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307869</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074076</v>
+        <v>64.03367896074067</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J32" t="n">
-        <v>171.750973479216</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
         <v>377.2303396281794</v>
@@ -6707,7 +6707,7 @@
         <v>636.4155757908256</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696013</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136765</v>
@@ -6728,22 +6728,22 @@
         <v>1789.258006477459</v>
       </c>
       <c r="T32" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537846</v>
       </c>
       <c r="V32" t="n">
         <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781644</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>461.7564812640412</v>
+        <v>104.7695307748685</v>
       </c>
       <c r="C33" t="n">
-        <v>461.7564812640412</v>
+        <v>104.7695307748685</v>
       </c>
       <c r="D33" t="n">
-        <v>461.7564812640412</v>
+        <v>104.7695307748685</v>
       </c>
       <c r="E33" t="n">
-        <v>461.7564812640412</v>
+        <v>104.7695307748685</v>
       </c>
       <c r="F33" t="n">
-        <v>301.3287649812852</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G33" t="n">
-        <v>151.0874890302591</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K33" t="n">
         <v>74.95631296890315</v>
@@ -6798,31 +6798,31 @@
         <v>800.787181073825</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R33" t="n">
-        <v>800.787181073825</v>
+        <v>658.8680661888343</v>
       </c>
       <c r="S33" t="n">
-        <v>800.787181073825</v>
+        <v>658.8680661888343</v>
       </c>
       <c r="T33" t="n">
-        <v>798.7360447531761</v>
+        <v>656.8169298681854</v>
       </c>
       <c r="U33" t="n">
-        <v>559.1121136613635</v>
+        <v>632.2608343805549</v>
       </c>
       <c r="V33" t="n">
-        <v>531.1002311691797</v>
+        <v>389.181116284189</v>
       </c>
       <c r="W33" t="n">
-        <v>476.769497503653</v>
+        <v>119.7825470144803</v>
       </c>
       <c r="X33" t="n">
-        <v>472.3293387245315</v>
+        <v>115.3423882353588</v>
       </c>
       <c r="Y33" t="n">
-        <v>461.7564812640412</v>
+        <v>104.7695307748685</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07516654911175</v>
+        <v>82.73936520355085</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07516654911175</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07516654911175</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07516654911175</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="L34" t="n">
-        <v>215.7413043506736</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="M34" t="n">
-        <v>270.2284982810522</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2284982810522</v>
+        <v>260.6219149623254</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810522</v>
+        <v>260.6219149623254</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810522</v>
+        <v>260.6219149623254</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810522</v>
+        <v>260.6219149623254</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270854</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T34" t="n">
-        <v>236.631690468793</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022787</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837841</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041389002</v>
+        <v>49.4351804138899</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914022</v>
+        <v>40.34194994914016</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102301</v>
+        <v>773.6196706102307</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361756</v>
+        <v>670.4759701361762</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711634</v>
+        <v>579.8911966711639</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400816</v>
+        <v>455.259198540082</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803358</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J35" t="n">
-        <v>196.8113455144153</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K35" t="n">
-        <v>437.1150275604664</v>
+        <v>266.6149047332744</v>
       </c>
       <c r="L35" t="n">
-        <v>485.5122780474537</v>
+        <v>560.6244567930082</v>
       </c>
       <c r="M35" t="n">
-        <v>811.1136588018429</v>
+        <v>643.3516827961251</v>
       </c>
       <c r="N35" t="n">
-        <v>888.3370617933479</v>
+        <v>966.1873873603765</v>
       </c>
       <c r="O35" t="n">
-        <v>924.347572692528</v>
+        <v>1247.810199832303</v>
       </c>
       <c r="P35" t="n">
-        <v>1156.546439569705</v>
+        <v>1247.810199832303</v>
       </c>
       <c r="Q35" t="n">
-        <v>1314.491298923133</v>
+        <v>1262.214258156529</v>
       </c>
       <c r="R35" t="n">
-        <v>1314.491298923133</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="S35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000719</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081777</v>
+        <v>900.8863438081784</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>436.886446398186</v>
+        <v>215.7234969542597</v>
       </c>
       <c r="C36" t="n">
-        <v>436.886446398186</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D36" t="n">
-        <v>436.886446398186</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="E36" t="n">
-        <v>263.3232425196005</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="F36" t="n">
-        <v>102.8955262368446</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="G36" t="n">
-        <v>102.8955262368446</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701477</v>
+        <v>65.1923691070148</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7032,34 +7032,34 @@
         <v>706.3127540229493</v>
       </c>
       <c r="P36" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="Q36" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="R36" t="n">
-        <v>649.1041223269457</v>
+        <v>655.302694166608</v>
       </c>
       <c r="S36" t="n">
-        <v>455.6857894942935</v>
+        <v>655.302694166608</v>
       </c>
       <c r="T36" t="n">
-        <v>455.6857894942935</v>
+        <v>655.302694166608</v>
       </c>
       <c r="U36" t="n">
-        <v>455.6857894942935</v>
+        <v>655.302694166608</v>
       </c>
       <c r="V36" t="n">
-        <v>455.6857894942935</v>
+        <v>454.0308344336709</v>
       </c>
       <c r="W36" t="n">
-        <v>436.886446398186</v>
+        <v>435.2314913375633</v>
       </c>
       <c r="X36" t="n">
-        <v>436.886446398186</v>
+        <v>215.7234969542597</v>
       </c>
       <c r="Y36" t="n">
-        <v>436.886446398186</v>
+        <v>215.7234969542597</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.08277280165146</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="C37" t="n">
-        <v>96.08277280165146</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="E37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="G37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="H37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="L37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847934</v>
+        <v>106.9735468446525</v>
       </c>
       <c r="U37" t="n">
-        <v>68.9551349876983</v>
+        <v>66.00075844755733</v>
       </c>
       <c r="V37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102299</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361758</v>
+        <v>670.4759701361762</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711635</v>
+        <v>579.8911966711639</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400817</v>
+        <v>455.259198540082</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803358</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722337</v>
+        <v>33.73340056967344</v>
       </c>
       <c r="J38" t="n">
-        <v>196.8113455144153</v>
+        <v>204.2335233968654</v>
       </c>
       <c r="K38" t="n">
-        <v>338.8078537927994</v>
+        <v>444.5372054429164</v>
       </c>
       <c r="L38" t="n">
-        <v>387.2051042797867</v>
+        <v>665.4341041580274</v>
       </c>
       <c r="M38" t="n">
-        <v>712.8064850341759</v>
+        <v>991.0354849124168</v>
       </c>
       <c r="N38" t="n">
-        <v>790.0298880256809</v>
+        <v>1068.258887903922</v>
       </c>
       <c r="O38" t="n">
-        <v>826.0403989248611</v>
+        <v>1104.269398803102</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.239265802039</v>
+        <v>1104.269398803102</v>
       </c>
       <c r="Q38" t="n">
-        <v>1216.184125155466</v>
+        <v>1262.214258156529</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360107</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666531</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.56113436117</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.43415543099</v>
+        <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081776</v>
+        <v>900.8863438081783</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="C39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="E39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="F39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="G39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="H39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="I39" t="n">
-        <v>78.76854090464988</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701477</v>
+        <v>65.1923691070148</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345202</v>
@@ -7269,34 +7269,34 @@
         <v>706.3127540229493</v>
       </c>
       <c r="P39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="Q39" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="R39" t="n">
-        <v>784.8246653722742</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="S39" t="n">
-        <v>784.8246653722742</v>
+        <v>597.6049043792844</v>
       </c>
       <c r="T39" t="n">
-        <v>784.8246653722742</v>
+        <v>527.8142149715095</v>
       </c>
       <c r="U39" t="n">
-        <v>545.2007342804616</v>
+        <v>288.1902838796969</v>
       </c>
       <c r="V39" t="n">
-        <v>456.4153313599354</v>
+        <v>45.11056578333096</v>
       </c>
       <c r="W39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="X39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.3112226872234</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="C40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="D40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="G40" t="n">
-        <v>109.9279233847934</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9279233847934</v>
+        <v>107.7997372387501</v>
       </c>
       <c r="I40" t="n">
-        <v>109.9279233847934</v>
+        <v>107.7997372387501</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9279233847934</v>
+        <v>107.7997372387501</v>
       </c>
       <c r="K40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="L40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847936</v>
       </c>
       <c r="U40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="V40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769837</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="X40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.31122268722337</v>
+        <v>26.3112226872234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629606</v>
+        <v>820.9115219629603</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311161</v>
+        <v>710.194943331116</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083137</v>
       </c>
       <c r="E41" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194418</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019059</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7409,28 +7409,28 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2437500379546</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015555</v>
+        <v>179.9855922825033</v>
       </c>
       <c r="L41" t="n">
-        <v>521.7291450524847</v>
+        <v>466.572966459787</v>
       </c>
       <c r="M41" t="n">
-        <v>604.4563710556016</v>
+        <v>787.4903161532004</v>
       </c>
       <c r="N41" t="n">
-        <v>681.6797740471065</v>
+        <v>1102.903842835002</v>
       </c>
       <c r="O41" t="n">
-        <v>955.8804086365832</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.657097631311</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.179779102288</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="R41" t="n">
         <v>1377.104477424478</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613612</v>
+        <v>1317.545509613611</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186984</v>
+        <v>955.751073318698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.1567252545543</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C42" t="n">
-        <v>362.1567252545543</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D42" t="n">
-        <v>362.1567252545543</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E42" t="n">
-        <v>188.5935213759687</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F42" t="n">
         <v>28.1658050932128</v>
@@ -7491,13 +7491,13 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.0469515130042</v>
+        <v>67.04695151300422</v>
       </c>
       <c r="L42" t="n">
         <v>185.6139934405096</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412893</v>
+        <v>368.7308031412894</v>
       </c>
       <c r="N42" t="n">
         <v>575.1140594806554</v>
@@ -7506,34 +7506,34 @@
         <v>708.1673364289388</v>
       </c>
       <c r="P42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="R42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="S42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="T42" t="n">
-        <v>792.877819617926</v>
+        <v>762.8823685999612</v>
       </c>
       <c r="U42" t="n">
-        <v>792.877819617926</v>
+        <v>523.2584375081486</v>
       </c>
       <c r="V42" t="n">
-        <v>792.8244495373712</v>
+        <v>523.2050674275938</v>
       </c>
       <c r="W42" t="n">
-        <v>760.200572564793</v>
+        <v>253.8064981578852</v>
       </c>
       <c r="X42" t="n">
-        <v>540.6925781814894</v>
+        <v>253.8064981578852</v>
       </c>
       <c r="Y42" t="n">
-        <v>540.6925781814894</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="43">
@@ -7567,43 +7567,43 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="K43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="L43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="M43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="N43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="O43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="P43" t="n">
-        <v>28.1658050932128</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4867779132288</v>
+        <v>72.60201188738485</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4867779132288</v>
+        <v>109.6107332207488</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344136</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="U43" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834345</v>
       </c>
       <c r="V43" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147783</v>
       </c>
       <c r="W43" t="n">
         <v>28.1658050932128</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629613</v>
+        <v>820.9115219629612</v>
       </c>
       <c r="C44" t="n">
         <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083143</v>
+        <v>612.0372917083146</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194419</v>
+        <v>479.8324154194421</v>
       </c>
       <c r="F44" t="n">
-        <v>315.586794101906</v>
+        <v>315.5867941019061</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7649,19 +7649,19 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015556</v>
+        <v>424.1252542015557</v>
       </c>
       <c r="L44" t="n">
-        <v>521.7291450524847</v>
+        <v>710.7126283788394</v>
       </c>
       <c r="M44" t="n">
-        <v>604.4563710556016</v>
+        <v>793.4398543819564</v>
       </c>
       <c r="N44" t="n">
-        <v>681.6797740471065</v>
+        <v>1108.853381063758</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8804086365832</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="P44" t="n">
         <v>1180.657097631311</v>
@@ -7691,7 +7691,7 @@
         <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186991</v>
+        <v>955.7510733186989</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.5780793602491</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C45" t="n">
         <v>28.1658050932128</v>
@@ -7752,25 +7752,25 @@
         <v>792.8778196179261</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179261</v>
+        <v>599.459486785274</v>
       </c>
       <c r="T45" t="n">
-        <v>575.758847693095</v>
+        <v>382.3405148604429</v>
       </c>
       <c r="U45" t="n">
-        <v>487.0300187105126</v>
+        <v>233.1272493546004</v>
       </c>
       <c r="V45" t="n">
-        <v>486.9766486299578</v>
+        <v>233.0738792740455</v>
       </c>
       <c r="W45" t="n">
-        <v>217.5780793602491</v>
+        <v>206.7016580201479</v>
       </c>
       <c r="X45" t="n">
-        <v>217.5780793602491</v>
+        <v>206.7016580201479</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.5780793602491</v>
+        <v>206.7016580201479</v>
       </c>
     </row>
     <row r="46">
@@ -7816,31 +7816,31 @@
         <v>28.1658050932128</v>
       </c>
       <c r="N46" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="O46" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="P46" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.60201188738502</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="R46" t="n">
-        <v>109.6107332207489</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="S46" t="n">
-        <v>114.8002368344137</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132287</v>
       </c>
       <c r="U46" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834345</v>
       </c>
       <c r="V46" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147783</v>
       </c>
       <c r="W46" t="n">
         <v>28.1658050932128</v>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0995883116344</v>
+        <v>165.9360666291091</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383726</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N12" t="n">
-        <v>135.9824011957685</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222149</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>165.9360666291097</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8597051383726</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N15" t="n">
         <v>102.1459228782933</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222149</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>200.9264671236373</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>165.936066629109</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383726</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2746605585926</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222149</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P18" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0995883116344</v>
+        <v>163.6514571711667</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5398549409796</v>
       </c>
       <c r="M21" t="n">
-        <v>236.2130298175838</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N21" t="n">
-        <v>224.195221151898</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222149</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P21" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>152.0917238005119</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383724</v>
+        <v>233.4222981833303</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518978</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222147</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.65546642937412</v>
+        <v>179.7047647029785</v>
       </c>
       <c r="C11" t="n">
-        <v>155.8230217063243</v>
+        <v>155.823021706324</v>
       </c>
       <c r="D11" t="n">
-        <v>143.3896839673727</v>
+        <v>143.3896839673725</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867816</v>
+        <v>177.0964363867813</v>
       </c>
       <c r="F11" t="n">
-        <v>147.5293609065664</v>
+        <v>208.8167739651587</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4449668635719</v>
+        <v>224.4449668635716</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766313</v>
+        <v>30.47973170302663</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.2136088607981</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163218</v>
+        <v>32.88999934163193</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293241</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>4.448009660692804</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509124</v>
+        <v>21.46468987730768</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198516</v>
+        <v>141.7028573772499</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.85379346999068</v>
+        <v>187.9030917435951</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029787</v>
+        <v>179.7047647029785</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063242</v>
+        <v>155.823021706324</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673727</v>
+        <v>143.3896839673724</v>
       </c>
       <c r="E14" t="n">
-        <v>55.04713811317686</v>
+        <v>177.0964363867813</v>
       </c>
       <c r="F14" t="n">
-        <v>86.76747569155418</v>
+        <v>208.8167739651586</v>
       </c>
       <c r="G14" t="n">
-        <v>102.3956685899671</v>
+        <v>224.4449668635716</v>
       </c>
       <c r="H14" t="n">
-        <v>119.278050210971</v>
+        <v>133.6852147827294</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.21360886079809</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8899993416321</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293209</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385737</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509123</v>
+        <v>21.46468987730771</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198515</v>
+        <v>43.35094034624694</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.9030917435953</v>
+        <v>65.85379346999071</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.664535259100376e-13</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>690723.7125682798</v>
+        <v>690723.7125682801</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>690723.7125682798</v>
+        <v>690723.7125682801</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837835.3954176368</v>
+        <v>837835.3954176367</v>
       </c>
       <c r="C2" t="n">
-        <v>837835.3954176372</v>
+        <v>837835.395417637</v>
       </c>
       <c r="D2" t="n">
-        <v>837835.3954176364</v>
+        <v>837835.3954176366</v>
       </c>
       <c r="E2" t="n">
-        <v>721990.5845694552</v>
+        <v>721990.5845694549</v>
       </c>
       <c r="F2" t="n">
-        <v>721990.5845694554</v>
+        <v>721990.5845694551</v>
       </c>
       <c r="G2" t="n">
         <v>839532.621415609</v>
       </c>
       <c r="H2" t="n">
-        <v>839532.6214156089</v>
+        <v>839532.621415609</v>
       </c>
       <c r="I2" t="n">
-        <v>839532.6214156089</v>
+        <v>839532.6214156088</v>
       </c>
       <c r="J2" t="n">
         <v>839532.6214156083</v>
       </c>
       <c r="K2" t="n">
+        <v>839532.6214156083</v>
+      </c>
+      <c r="L2" t="n">
         <v>839532.6214156082</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>839532.6214156088</v>
       </c>
-      <c r="M2" t="n">
-        <v>839532.6214156089</v>
-      </c>
       <c r="N2" t="n">
-        <v>839532.6214156093</v>
+        <v>839532.621415609</v>
       </c>
       <c r="O2" t="n">
-        <v>839532.6214156091</v>
+        <v>839532.621415609</v>
       </c>
       <c r="P2" t="n">
-        <v>839532.6214156093</v>
+        <v>839532.621415609</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845676</v>
+        <v>275373.0470845677</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474379</v>
+        <v>101197.8463474377</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107727</v>
+        <v>155188.048810773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474379</v>
+        <v>101197.8463474377</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097994</v>
+        <v>28140.86133097985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240156</v>
+        <v>68716.99883240173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>461965.1541894153</v>
       </c>
       <c r="E4" t="n">
-        <v>355249.9666028519</v>
+        <v>355249.9666028521</v>
       </c>
       <c r="F4" t="n">
         <v>355249.966602852</v>
@@ -26439,7 +26439,7 @@
         <v>425753.4766314353</v>
       </c>
       <c r="J4" t="n">
-        <v>424916.7517290889</v>
+        <v>424916.7517290888</v>
       </c>
       <c r="K4" t="n">
         <v>424916.7517290888</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.8622633483</v>
       </c>
       <c r="F5" t="n">
         <v>26025.8622633483</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407675</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407675</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="I5" t="n">
-        <v>36660.36444407673</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082261</v>
@@ -26500,16 +26500,16 @@
         <v>47580.58365082261</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483013</v>
+        <v>43117.20390483014</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483013</v>
+        <v>43117.20390483014</v>
       </c>
       <c r="O5" t="n">
         <v>43896.40868247331</v>
       </c>
       <c r="P5" t="n">
-        <v>43896.40868247332</v>
+        <v>43896.40868247331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342242.6412282216</v>
+        <v>342238.1748440163</v>
       </c>
       <c r="C6" t="n">
-        <v>342242.6412282219</v>
+        <v>342238.1748440165</v>
       </c>
       <c r="D6" t="n">
-        <v>342242.6412282211</v>
+        <v>342238.1748440161</v>
       </c>
       <c r="E6" t="n">
-        <v>65341.70861868748</v>
+        <v>65032.38746909163</v>
       </c>
       <c r="F6" t="n">
-        <v>340714.7557032551</v>
+        <v>340405.4345536596</v>
       </c>
       <c r="G6" t="n">
-        <v>275920.933992659</v>
+        <v>275920.9339926593</v>
       </c>
       <c r="H6" t="n">
-        <v>377118.7803400969</v>
+        <v>377118.780340097</v>
       </c>
       <c r="I6" t="n">
-        <v>377118.7803400969</v>
+        <v>377118.7803400967</v>
       </c>
       <c r="J6" t="n">
-        <v>211847.2372249241</v>
+        <v>211847.2372249238</v>
       </c>
       <c r="K6" t="n">
-        <v>367035.2860356967</v>
+        <v>367035.2860356969</v>
       </c>
       <c r="L6" t="n">
-        <v>265837.4396882595</v>
+        <v>265837.4396882592</v>
       </c>
       <c r="M6" t="n">
         <v>343899.3603506602</v>
       </c>
       <c r="N6" t="n">
-        <v>372040.2216816405</v>
+        <v>372040.2216816403</v>
       </c>
       <c r="O6" t="n">
-        <v>302443.9247178654</v>
+        <v>302443.9247178651</v>
       </c>
       <c r="P6" t="n">
-        <v>371160.9235502671</v>
+        <v>371160.9235502668</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
@@ -26713,13 +26713,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26777,7 +26777,7 @@
         <v>103.8405771010907</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010907</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638969</v>
       </c>
       <c r="K4" t="n">
         <v>450.9395818638968</v>
@@ -26820,10 +26820,10 @@
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902921</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902921</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384286</v>
+        <v>86.41984931384312</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372493</v>
+        <v>35.17607666372481</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763065</v>
+        <v>78.92269993763097</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.8902835902925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486789</v>
+        <v>23.18228007486761</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384286</v>
+        <v>86.41984931384312</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87088762177225</v>
+        <v>146.2149798051138</v>
       </c>
       <c r="K11" t="n">
-        <v>127.4115402197617</v>
+        <v>127.4115402197614</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,13 +28123,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.04586090844793</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>127.9388770267085</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q11" t="n">
         <v>88.55297193870597</v>
@@ -28138,25 +28138,25 @@
         <v>194.2075003718244</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.13658612126563</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
-        <v>69.43485123072097</v>
+        <v>69.43485123072125</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U12" t="n">
-        <v>128.6469272467664</v>
+        <v>158.6336213658362</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748545</v>
+        <v>118.5996226417979</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="13">
@@ -28254,10 +28254,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748545</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748545</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959616282545</v>
@@ -28269,52 +28269,52 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3824756748545</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
         <v>66.47076232176848</v>
       </c>
       <c r="L13" t="n">
-        <v>153.48550824744</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800152</v>
+        <v>90.70118460570191</v>
       </c>
       <c r="N13" t="n">
-        <v>21.42661908433606</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O13" t="n">
-        <v>36.79854607717668</v>
+        <v>158.8478443507811</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89645227716784</v>
+        <v>179.9457505507722</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748545</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="14">
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748546</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K14" t="n">
-        <v>123.2899052584696</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.71490825170032</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,10 +28363,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>85.67504484008899</v>
       </c>
       <c r="P14" t="n">
-        <v>13.54892393491824</v>
+        <v>135.5982222085226</v>
       </c>
       <c r="Q14" t="n">
         <v>88.55297193870597</v>
@@ -28375,25 +28375,25 @@
         <v>194.2075003718244</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.08220093432485</v>
+        <v>88.24408477504427</v>
       </c>
       <c r="C15" t="n">
-        <v>65.46885325076124</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28457,22 +28457,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3824756748546</v>
+        <v>92.89848393197833</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748546</v>
+        <v>144.6552853034073</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959616282545</v>
@@ -28506,19 +28506,19 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="K16" t="n">
-        <v>188.5200605953731</v>
+        <v>90.4825024738355</v>
       </c>
       <c r="L16" t="n">
-        <v>90.76040519548147</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M16" t="n">
         <v>24.46235891800152</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8328896397048</v>
+        <v>137.8328896397044</v>
       </c>
       <c r="O16" t="n">
         <v>36.79854607717668</v>
@@ -28530,28 +28530,28 @@
         <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177225</v>
+        <v>197.9201858953766</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946157013</v>
+        <v>119.7521950379463</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28606,13 +28606,13 @@
         <v>13.54892393491824</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.335616437831</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R17" t="n">
-        <v>316.256798645429</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
         <v>222.4189089677869</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>69.24947247827505</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28649,13 +28649,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>49.778273566195</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.77414084632366</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>26.68956491791124</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H18" t="n">
         <v>125.6800758778345</v>
@@ -28664,7 +28664,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127088</v>
       </c>
       <c r="S18" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197833</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>191.2172301525291</v>
+        <v>118.5996226417979</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28819,13 +28819,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I20" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
         <v>75.87088762177225</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946157013</v>
+        <v>26.14488644528101</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28846,16 +28846,16 @@
         <v>88.55297193870597</v>
       </c>
       <c r="R20" t="n">
-        <v>279.6329521132802</v>
+        <v>316.2567986454287</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2724750164867</v>
+        <v>320.879783609152</v>
       </c>
       <c r="T20" t="n">
         <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
-        <v>320.879783609152</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>51.67129315718786</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127088</v>
       </c>
       <c r="S21" t="n">
-        <v>69.43485123072097</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T21" t="n">
-        <v>113.5833464074573</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>118.5996226417976</v>
+        <v>118.5996226417979</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>95.26361616586593</v>
+        <v>95.26361616586627</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491824</v>
+        <v>135.5982222085226</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870597</v>
+        <v>122.6592259569962</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
@@ -29089,10 +29089,10 @@
         <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>307.8443607092422</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127067</v>
+        <v>12.31403934127087</v>
       </c>
       <c r="S24" t="n">
-        <v>69.43485123072111</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T24" t="n">
-        <v>92.89848393197815</v>
+        <v>92.89848393197835</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276917808945</v>
+        <v>115.1783935072901</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>217.2728928141386</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>109.8118925200799</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29296,7 +29296,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9171572481401</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K26" t="n">
         <v>212.9171572481403</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388631915159</v>
@@ -29372,10 +29372,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I27" t="n">
-        <v>87.98157106544669</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.13658612126563</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>98.07772319705197</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29408,10 +29408,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>212.9171572481403</v>
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29460,13 +29460,13 @@
         <v>66.47076232176848</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383528</v>
+        <v>200.220219877355</v>
       </c>
       <c r="M28" t="n">
-        <v>63.84730993691042</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N28" t="n">
-        <v>212.9171572481403</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O28" t="n">
         <v>36.79854607717668</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7388631915159</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.13658612126563</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.67943241516348</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9171572481403</v>
+        <v>10.54639904976582</v>
       </c>
       <c r="U30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>212.9171572481403</v>
@@ -29700,7 +29700,7 @@
         <v>31.43620997383528</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46235891800152</v>
+        <v>84.86226464798742</v>
       </c>
       <c r="N31" t="n">
         <v>15.78359136610012</v>
@@ -29709,7 +29709,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="P31" t="n">
-        <v>118.2963580071537</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K32" t="n">
         <v>212.9171572481402</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481413</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="33">
@@ -29837,13 +29837,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>90.81601853642911</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H33" t="n">
-        <v>11.81787662149864</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I33" t="n">
         <v>107.1657389737211</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9171572481402</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9171572481402</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="34">
@@ -29922,25 +29922,25 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I34" t="n">
-        <v>164.7082190429235</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J34" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L34" t="n">
-        <v>212.9171572481402</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M34" t="n">
-        <v>79.49992854464651</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78359136610012</v>
+        <v>147.2539963515647</v>
       </c>
       <c r="O34" t="n">
         <v>36.79854607717668</v>
@@ -29952,28 +29952,28 @@
         <v>126.8139378168763</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I35" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>248.0932339118652</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="M35" t="n">
-        <v>245.3274290416892</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="P35" t="n">
-        <v>248.0932339118652</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118652</v>
+        <v>103.1025258015608</v>
       </c>
       <c r="R35" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="S35" t="n">
-        <v>228.3531168730883</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T35" t="n">
         <v>222.4189089677869</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="36">
@@ -30065,22 +30065,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H36" t="n">
-        <v>49.86161536370946</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I36" t="n">
         <v>107.1657389737211</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
         <v>214.9477822055827</v>
@@ -30122,13 +30122,13 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>41.38977977979445</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>248.0932339118652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>159.167650839743</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30168,10 +30168,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L37" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M37" t="n">
         <v>24.46235891800152</v>
@@ -30180,7 +30180,7 @@
         <v>15.78359136610012</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717668</v>
+        <v>118.275641185691</v>
       </c>
       <c r="P37" t="n">
         <v>57.89645227716784</v>
@@ -30198,13 +30198,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,40 +30220,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="J38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="K38" t="n">
-        <v>148.7930583889692</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>174.2420689172966</v>
       </c>
       <c r="M38" t="n">
-        <v>245.3274290416892</v>
+        <v>245.3274290416895</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118652</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118652</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118652</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="39">
@@ -30320,10 +30320,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,25 +30344,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>145.8549996918855</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>152.7513720240813</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30390,13 +30390,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>223.388196054376</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7816030517371</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I40" t="n">
         <v>164.7082190429235</v>
@@ -30405,10 +30405,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176849</v>
+        <v>68.62044529757</v>
       </c>
       <c r="L40" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M40" t="n">
         <v>24.46235891800152</v>
@@ -30435,13 +30435,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,31 +30481,31 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J41" t="n">
+        <v>75.87088762177225</v>
+      </c>
+      <c r="K41" t="n">
+        <v>158.7155623393797</v>
+      </c>
+      <c r="L41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="L41" t="n">
-        <v>49.70367713529477</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5960845356529</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5960845356529</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S41" t="n">
         <v>240.5960845356529</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30545,10 +30545,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7388631915159</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265633</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R42" t="n">
         <v>134.3633376148752</v>
@@ -30590,22 +30590,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9477822055827</v>
+        <v>185.2522856977974</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
-        <v>234.4069453741592</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,13 +30639,13 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8993073508208</v>
+        <v>164.7843647186713</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L43" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M43" t="n">
         <v>24.46235891800152</v>
@@ -30660,16 +30660,16 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q43" t="n">
-        <v>231.1785568269934</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R43" t="n">
-        <v>203.2135377342752</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3541616935673</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7409925368498</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U43" t="n">
         <v>240.5960845356529</v>
@@ -30724,19 +30724,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
-        <v>49.70367713529468</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5960845356529</v>
+        <v>36.15475320037635</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5960845356529</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5960845356529</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>149.3861510881379</v>
+        <v>89.50655893011037</v>
       </c>
       <c r="V45" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30885,10 +30885,10 @@
         <v>31.43620997383528</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800151</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610011</v>
+        <v>120.1482103762172</v>
       </c>
       <c r="O46" t="n">
         <v>36.79854607717668</v>
@@ -30897,16 +30897,16 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
-        <v>171.698995184727</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R46" t="n">
-        <v>240.5960845356529</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S46" t="n">
-        <v>240.5960845356529</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5960845356529</v>
+        <v>223.7409925368498</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -33412,22 +33412,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I32" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K32" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N32" t="n">
         <v>74.48656793403165</v>
@@ -33445,7 +33445,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T32" t="n">
         <v>1.827385432201104</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J33" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L33" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R33" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K34" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O34" t="n">
         <v>26.46743102897966</v>
@@ -33600,13 +33600,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R34" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S34" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U34" t="n">
         <v>0.010213827255845</v>
@@ -33649,22 +33649,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I35" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K35" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N35" t="n">
         <v>74.48656793403165</v>
@@ -33682,7 +33682,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T35" t="n">
         <v>1.827385432201104</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H36" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J36" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L36" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R36" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K37" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O37" t="n">
         <v>26.46743102897966</v>
@@ -33837,13 +33837,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R37" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S37" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U37" t="n">
         <v>0.010213827255845</v>
@@ -33886,22 +33886,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I38" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K38" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N38" t="n">
         <v>74.48656793403165</v>
@@ -33919,7 +33919,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T38" t="n">
         <v>1.827385432201104</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H39" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J39" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L39" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R39" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K40" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O40" t="n">
         <v>26.46743102897966</v>
@@ -34074,13 +34074,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R40" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S40" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U40" t="n">
         <v>0.010213827255845</v>
@@ -34123,22 +34123,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I41" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K41" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N41" t="n">
         <v>74.48656793403165</v>
@@ -34156,7 +34156,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T41" t="n">
         <v>1.827385432201104</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H42" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J42" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L42" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R42" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K43" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O43" t="n">
         <v>26.46743102897966</v>
@@ -34311,13 +34311,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R43" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S43" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U43" t="n">
         <v>0.010213827255845</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852892</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282594</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J44" t="n">
         <v>35.43050926928122</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260452</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771008</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252021</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403167</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971419</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138986</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q44" t="n">
         <v>45.07985576050417</v>
@@ -34393,13 +34393,13 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572287</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T44" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482313</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.157141045062282</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995874</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J45" t="n">
         <v>21.10216859749619</v>
@@ -34457,13 +34457,13 @@
         <v>56.59311452009445</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337341</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O45" t="n">
         <v>53.14188477361198</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214425</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q45" t="n">
         <v>28.51109581085043</v>
@@ -34472,10 +34472,10 @@
         <v>13.86761518342492</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614331</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047394</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U45" t="n">
         <v>0.01469442128789021</v>
@@ -34521,13 +34521,13 @@
         <v>1.664853842702735</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055874</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J46" t="n">
         <v>13.23882242811775</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L46" t="n">
         <v>27.83948849034817</v>
@@ -34536,13 +34536,13 @@
         <v>29.35283722875586</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627315</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O46" t="n">
         <v>26.46743102897966</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529362</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q46" t="n">
         <v>15.6799271422647</v>
@@ -34551,10 +34551,10 @@
         <v>8.419598267901552</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242474</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411908</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U46" t="n">
         <v>0.010213827255845</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>70.34409218334152</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="L11" t="n">
         <v>48.8861116030175</v>
@@ -35419,13 +35419,13 @@
         <v>83.56285454860296</v>
       </c>
       <c r="N11" t="n">
-        <v>78.00343736515646</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O11" t="n">
         <v>36.37425343351535</v>
       </c>
       <c r="P11" t="n">
-        <v>114.3899530917903</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>33.83647831747472</v>
       </c>
       <c r="L12" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N12" t="n">
-        <v>33.83647831747525</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>85.56614463534063</v>
@@ -35550,10 +35550,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262954</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640788</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403376</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>66.2388256877004</v>
       </c>
       <c r="N13" t="n">
-        <v>5.643027718235944</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.56853785797826</v>
+        <v>67.56853785797854</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530824</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>117.9276633123126</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.8861116030175</v>
+        <v>77.60101985471782</v>
       </c>
       <c r="M14" t="n">
         <v>83.56285454860296</v>
@@ -35659,10 +35659,10 @@
         <v>78.00343736515646</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351535</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.83647831747527</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534063</v>
+        <v>80.12873768029864</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.19982542414414</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.70633446262985</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.4555934564082</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.48316832403384</v>
+        <v>74.48316832403407</v>
       </c>
       <c r="K16" t="n">
-        <v>122.0492982736047</v>
+        <v>24.01174015206703</v>
       </c>
       <c r="L16" t="n">
-        <v>59.32419522164619</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>114.3899530917893</v>
       </c>
       <c r="L17" t="n">
         <v>48.8861116030175</v>
@@ -35902,13 +35902,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.782644499125</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.0492982736047</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266529</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251657</v>
+        <v>33.83647831747461</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N18" t="n">
-        <v>80.12873768029932</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.28369907349908</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>20.782644499124</v>
       </c>
       <c r="L20" t="n">
         <v>48.8861116030175</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>85.42545174145583</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.60730859266529</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.73010055044004</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>31.55186885953227</v>
       </c>
       <c r="L21" t="n">
-        <v>119.764688815662</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>119.4026229528159</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736047</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>36.37425343351535</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>34.10625401829019</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136507</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>57.69467765053022</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L24" t="n">
-        <v>31.5518688595324</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736045</v>
+        <v>116.6118913185623</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736045</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736045</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P24" t="n">
         <v>85.56614463534063</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0462696263678</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K26" t="n">
         <v>207.5549153019833</v>
@@ -36613,10 +36613,10 @@
         <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631598</v>
+        <v>18.70965687631595</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.73450699742961</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>168.7840099035197</v>
       </c>
       <c r="M28" t="n">
-        <v>39.38495101890891</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>197.1335658820402</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631592</v>
+        <v>18.70965687631593</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>60.3999057299859</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>176.1186111709636</v>
       </c>
       <c r="P31" t="n">
-        <v>60.3999057299859</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>207.5549153019832</v>
       </c>
       <c r="L32" t="n">
-        <v>261.8032688511577</v>
+        <v>261.8032688511578</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9205946132967</v>
+        <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
         <v>249.2914106816556</v>
@@ -37087,10 +37087,10 @@
         <v>199.368233313222</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3641853094342</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631687</v>
+        <v>18.70965687631592</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13555419640314</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.20893820521674</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.480947274305</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>55.03756962664499</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>131.4704049854646</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.703619513865068</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900929</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>242.7309919657081</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301748</v>
+        <v>296.9793455148826</v>
       </c>
       <c r="M35" t="n">
-        <v>328.8902835902921</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N35" t="n">
-        <v>78.00343736515646</v>
+        <v>326.0966712770215</v>
       </c>
       <c r="O35" t="n">
-        <v>36.37425343351535</v>
+        <v>284.4674873453804</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731592</v>
+        <v>14.54955386285485</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.88573354004073</v>
       </c>
       <c r="S35" t="n">
-        <v>1.080641856601641</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,13 +37437,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.47631324689706</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>13.98500058903231</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>81.47709510851428</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.984218727415197</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.497149376212167</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900929</v>
+        <v>172.2223462900928</v>
       </c>
       <c r="K38" t="n">
-        <v>143.4308164428122</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L38" t="n">
-        <v>48.88611160301748</v>
+        <v>223.1281805203141</v>
       </c>
       <c r="M38" t="n">
-        <v>328.8902835902921</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="N38" t="n">
         <v>78.00343736515646</v>
@@ -37558,19 +37558,19 @@
         <v>36.37425343351535</v>
       </c>
       <c r="P38" t="n">
-        <v>234.5443099769469</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5402619731592</v>
+        <v>159.5402619731591</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004079</v>
+        <v>53.88573354004073</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537844</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407822</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>84.46131383592937</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>82.31163086012796</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.149682975801519</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7251969138806</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.2338425894959</v>
+        <v>153.3533203932227</v>
       </c>
       <c r="L41" t="n">
-        <v>98.58978873831225</v>
+        <v>289.4821961386705</v>
       </c>
       <c r="M41" t="n">
-        <v>83.56285454860294</v>
+        <v>324.1589390842559</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00343736515646</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O41" t="n">
         <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0471606007347</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0431125969469</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382855</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.3236095191662</v>
+        <v>13.32360951916623</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17717556786598</v>
+        <v>18.17717556786601</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>44.88505736785055</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,16 +37956,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.38254680137773</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.241922842085611</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.85509199880319</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>235.2338425894959</v>
       </c>
       <c r="L44" t="n">
-        <v>98.58978873831219</v>
+        <v>289.4821961386705</v>
       </c>
       <c r="M44" t="n">
-        <v>83.56285454860297</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515647</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9703379691683</v>
+        <v>72.5290066338917</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0471606007347</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382856</v>
+        <v>46.38858416382858</v>
       </c>
       <c r="S44" t="n">
-        <v>13.3236095191662</v>
+        <v>13.32360951916623</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17717556786598</v>
+        <v>18.17717556786601</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251658</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>104.3646190101171</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.88505736785072</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.3825468013777</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.241922842085583</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.85509199880316</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
